--- a/TestInput_Biomarkers.xlsx
+++ b/TestInput_Biomarkers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Daish\PycharmProjects\untitled4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Daish\PycharmProjects\COL001_100221_V01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64172907-7FD7-4FEF-8D8E-8B6C2C581C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FCDE80-23F9-410F-A842-93DED16F0F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1665" windowWidth="29040" windowHeight="15990" xr2:uid="{13DB820E-1E96-4DB3-8433-07D1D612E2ED}"/>
+    <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="17790" xr2:uid="{13DB820E-1E96-4DB3-8433-07D1D612E2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Male</t>
   </si>
   <si>
     <t>UIN438619489TB9</t>
   </si>
+  <si>
+    <t>%$#@^&amp;%*()!&amp;~_+</t>
+  </si>
+  <si>
+    <t>ABCD12345678</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,17 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC30BD59-2B8A-4250-84DB-EFF2454A7DB1}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1">
         <v>69</v>
@@ -424,7 +444,62 @@
         <v>683.54542616919105</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1063.32</v>
+      </c>
+      <c r="E2">
+        <v>5.2409177173235664</v>
+      </c>
+      <c r="F2">
+        <v>10.56</v>
+      </c>
+      <c r="G2">
+        <v>959.58295918842089</v>
+      </c>
+      <c r="H2">
+        <v>683.54542616919105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1063.32</v>
+      </c>
+      <c r="E3">
+        <v>5.2409177173235664</v>
+      </c>
+      <c r="F3">
+        <v>10.56</v>
+      </c>
+      <c r="G3">
+        <v>959.58295918842089</v>
+      </c>
+      <c r="H3">
+        <v>683.54542616919105</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{FB85EF0E-D67C-4D50-A400-ED7FC85B74D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>